--- a/documents/controll.xlsx
+++ b/documents/controll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\THU\2016Autumn\CPU\THINPAD2\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THINPAD2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="5205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="183">
   <si>
     <t>ADDIU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RAC=MEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RAC中 ALU=Rx+S4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,6 +733,26 @@
   </si>
   <si>
     <t>001,RAC=00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAC=MEMY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAC=MEMX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,25 +1095,27 @@
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1120,20 +1134,20 @@
       <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,26 +1160,26 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>88</v>
+      <c r="K2" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1173,348 +1187,348 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>87</v>
+      <c r="K5" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="1" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
+      <c r="L9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="K9" s="2"/>
-      <c r="L9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
+      <c r="L12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="K12" s="2"/>
-      <c r="L12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R13" s="1" t="s">
+      <c r="P14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1" t="s">
+      <c r="R14" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K15" s="3"/>
+      <c r="L15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="K15" s="2"/>
-      <c r="L15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>99</v>
+      <c r="K16" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K18" s="3"/>
+      <c r="L18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="K18" s="2"/>
-      <c r="L18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O20" s="1" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="O21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1522,21 +1536,21 @@
         <v>14</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="O23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1544,21 +1558,21 @@
         <v>16</v>
       </c>
       <c r="O24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="O25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,13 +1580,21 @@
         <v>18</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1580,7 +1602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1588,12 +1610,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1601,12 +1623,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -1614,12 +1636,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1627,345 +1649,345 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D59" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D62" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D65" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D68" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D73" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D76" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D79" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D82" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D85" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D88" s="1" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E89" s="1" t="s">
+      <c r="F94" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E90" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E91" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F91" s="1" t="s">
+      <c r="F95" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D93" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E94" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E96" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/controll.xlsx
+++ b/documents/controll.xlsx
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K15"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1988,15 +1988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="K16:K18"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/controll.xlsx
+++ b/documents/controll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THINPAD2\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\THU\2016Autumn\CPU\THINPAD2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="184">
   <si>
     <t>ADDIU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,63 +696,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OE&lt;=0,FINISH&lt;=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC=JR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTHING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001,RAC=00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAC=MEMY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAC=MEMX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OE&lt;=0,FINISH&lt;=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC=JR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTHING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001,RAC=00000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAC=MEMY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAC=MEMX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,28 +1098,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1143,11 +1147,11 @@
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,13 +1177,13 @@
         <v>105</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1206,13 +1210,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>109</v>
@@ -1227,7 +1231,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1253,9 +1257,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>109</v>
@@ -1277,7 +1281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K9" s="3"/>
       <c r="L9" s="1" t="s">
         <v>89</v>
@@ -1330,7 +1334,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1354,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K12" s="3"/>
       <c r="L12" s="1" t="s">
         <v>165</v>
@@ -1377,7 +1381,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1407,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K15" s="3"/>
       <c r="L15" s="1" t="s">
         <v>95</v>
@@ -1436,7 +1440,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K18" s="3"/>
       <c r="L18" s="1" t="s">
         <v>95</v>
@@ -1483,7 +1487,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O21" s="1" t="s">
         <v>158</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O23" s="1" t="s">
         <v>160</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O25" s="1" t="s">
         <v>162</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1580,21 +1584,21 @@
         <v>18</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1610,12 +1614,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D31" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1623,12 +1627,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,12 +1640,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,12 +1653,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D40" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -1665,10 +1669,10 @@
         <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1676,12 +1680,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
@@ -1689,7 +1693,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E46" s="1" t="s">
         <v>163</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1708,10 +1712,10 @@
         <v>33</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E48" s="1" t="s">
         <v>34</v>
       </c>
@@ -1719,12 +1723,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E50" s="1" t="s">
         <v>36</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E51" s="1" t="s">
         <v>108</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
@@ -1748,12 +1752,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>43</v>
       </c>
@@ -1761,12 +1765,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>45</v>
       </c>
@@ -1774,12 +1778,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D59" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>47</v>
       </c>
@@ -1787,12 +1791,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>49</v>
       </c>
@@ -1800,12 +1804,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D65" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>51</v>
       </c>
@@ -1813,12 +1817,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D68" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>55</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>57</v>
       </c>
@@ -1834,12 +1838,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>59</v>
       </c>
@@ -1847,12 +1851,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D76" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>62</v>
       </c>
@@ -1860,12 +1864,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D79" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>65</v>
       </c>
@@ -1873,12 +1877,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D82" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>67</v>
       </c>
@@ -1886,12 +1890,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>70</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D88" s="1" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E89" s="1" t="s">
         <v>75</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E90" s="1" t="s">
         <v>76</v>
       </c>
@@ -1926,15 +1930,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
@@ -1945,7 +1949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D93" s="1" t="s">
         <v>74</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E94" s="1" t="s">
         <v>75</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E95" s="1" t="s">
         <v>76</v>
       </c>
@@ -1969,25 +1973,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E96" s="1" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="K16:K18"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/controll.xlsx
+++ b/documents/controll.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="188">
   <si>
     <t>ADDIU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,6 +757,22 @@
   </si>
   <si>
     <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write back alu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write back mem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +780,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +793,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -803,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +847,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1583,18 +1621,18 @@
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1606,6 +1644,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>21</v>
@@ -1613,6 +1659,12 @@
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D31" s="1" t="s">
@@ -1983,15 +2035,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
